--- a/Chart maker/Tests.xlsx
+++ b/Chart maker/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BITS\PS 1\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A346A6F-8A7E-47DC-B72E-3C0AE5B521FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615BD01E-1DCD-462D-97E8-5BD7322C539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{BDD1F5FF-6C95-4EEB-9577-5A4373C2A29B}"/>
+    <workbookView xWindow="2700" yWindow="6588" windowWidth="23040" windowHeight="14100" activeTab="1" xr2:uid="{BDD1F5FF-6C95-4EEB-9577-5A4373C2A29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Week No.</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Goitre</t>
+  </si>
+  <si>
+    <t>Systole</t>
+  </si>
+  <si>
+    <t>Diastole</t>
+  </si>
+  <si>
+    <t>Weight Gain</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC45E7C2-3D0E-43EB-92F0-CFBAD8CF413E}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -845,20 +854,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48F8BB5-E790-4F6A-90EA-67C2D5CC01A4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -877,8 +895,17 @@
       <c r="G2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -897,8 +924,17 @@
       <c r="G3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -908,38 +944,47 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
